--- a/Excel Interactive Dashboard.xlsx
+++ b/Excel Interactive Dashboard.xlsx
@@ -5,19 +5,19 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/068DB997D0C14EB9/Dokumentumok/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/068db997d0c14eb9/Dokumentumok/EXCEL/Project_1-Dashboard/Excel_Project_Data_Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{32E69FCD-DEB6-4019-A743-6B455D186E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F259AE7-B174-4803-91FF-74345932DB81}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{32E69FCD-DEB6-4019-A743-6B455D186E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AD6EAF2-638D-4DF9-B77F-3C9ED3D16E44}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="5" activeTab="5" xr2:uid="{517CF886-48E3-4A2A-9A48-99008F1452F4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="5" xr2:uid="{517CF886-48E3-4A2A-9A48-99008F1452F4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Profit by Country and Cookie" sheetId="22" state="hidden" r:id="rId1"/>
-    <sheet name="Unit sold each month" sheetId="23" state="hidden" r:id="rId2"/>
-    <sheet name="Profit by month" sheetId="24" state="hidden" r:id="rId3"/>
-    <sheet name="Data" sheetId="15" state="hidden" r:id="rId4"/>
-    <sheet name="New Data" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="Profit by Country and Cookie" sheetId="22" r:id="rId1"/>
+    <sheet name="Unit sold each month" sheetId="23" r:id="rId2"/>
+    <sheet name="Profit by month" sheetId="24" r:id="rId3"/>
+    <sheet name="Data" sheetId="15" r:id="rId4"/>
+    <sheet name="New Data" sheetId="4" r:id="rId5"/>
     <sheet name="Performance Dashboard" sheetId="21" r:id="rId6"/>
   </sheets>
   <definedNames>
@@ -29,7 +29,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="76" r:id="rId7"/>
+    <pivotCache cacheId="14" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -922,7 +922,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5DCD-4D31-A5DF-6307BB413382}"/>
+              <c16:uniqueId val="{00000000-E165-4694-9FB7-C2447120316E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -999,7 +999,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5DCD-4D31-A5DF-6307BB413382}"/>
+              <c16:uniqueId val="{00000001-E165-4694-9FB7-C2447120316E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1076,7 +1076,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5DCD-4D31-A5DF-6307BB413382}"/>
+              <c16:uniqueId val="{00000002-E165-4694-9FB7-C2447120316E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1153,7 +1153,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5DCD-4D31-A5DF-6307BB413382}"/>
+              <c16:uniqueId val="{00000003-E165-4694-9FB7-C2447120316E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1230,7 +1230,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5DCD-4D31-A5DF-6307BB413382}"/>
+              <c16:uniqueId val="{00000004-E165-4694-9FB7-C2447120316E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3637,7 +3637,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7AD5-4C49-A3F5-C9EFFD84999D}"/>
+              <c16:uniqueId val="{00000001-ABAF-4066-A34D-6F14515FB199}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3714,7 +3714,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7AD5-4C49-A3F5-C9EFFD84999D}"/>
+              <c16:uniqueId val="{00000002-ABAF-4066-A34D-6F14515FB199}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3791,7 +3791,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7AD5-4C49-A3F5-C9EFFD84999D}"/>
+              <c16:uniqueId val="{00000003-ABAF-4066-A34D-6F14515FB199}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3868,7 +3868,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7AD5-4C49-A3F5-C9EFFD84999D}"/>
+              <c16:uniqueId val="{00000004-ABAF-4066-A34D-6F14515FB199}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3945,7 +3945,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7AD5-4C49-A3F5-C9EFFD84999D}"/>
+              <c16:uniqueId val="{00000005-ABAF-4066-A34D-6F14515FB199}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8988,8 +8988,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>68579</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+      <mc:Choice Requires="tsle">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Date">
@@ -9009,12 +9009,12 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
-              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Date"/>
+              <tsle:timeslicer name="Date"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9067,8 +9067,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Country">
@@ -9093,7 +9093,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9147,8 +9147,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>67733</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Product">
@@ -9173,7 +9173,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9276,6 +9276,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15696,7 +15700,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04E1BA5A-55C0-4CB7-8BCE-52709AA87D53}" name="PivotTable27" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04E1BA5A-55C0-4CB7-8BCE-52709AA87D53}" name="PivotTable27" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:H10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -15996,7 +16000,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DDBCD3D7-52E4-403A-9552-DDDF2CBA4C44}" name="PivotTable27" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DDBCD3D7-52E4-403A-9552-DDDF2CBA4C44}" name="PivotTable27" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0">
@@ -16169,7 +16173,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D979C0D-0E54-4497-BF35-62533D45C983}" name="PivotTable27" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D979C0D-0E54-4497-BF35-62533D45C983}" name="PivotTable27" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0">
@@ -16719,7 +16723,7 @@
 
 <file path=xl/timelines/timeline1.xml><?xml version="1.0" encoding="utf-8"?>
 <timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <timeline name="Date" xr10:uid="{225F605C-C4C2-47EF-A8C8-3BA19BA6F822}" cache="NativeTimeline_Date" caption="Date" level="2" selectionLevel="2" scrollPosition="2020-02-01T00:00:00"/>
+  <timeline name="Date" xr10:uid="{225F605C-C4C2-47EF-A8C8-3BA19BA6F822}" cache="NativeTimeline_Date" caption="Date" level="2" selectionLevel="2" scrollPosition="2019-01-01T00:00:00"/>
 </timelines>
 </file>
 
@@ -45486,7 +45490,7 @@
   <dimension ref="H1:N6"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -45538,6 +45542,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A0BB840363DCC445901D9DC0262B0959" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c5af629314e89a0b2bd2981e20e8f7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6f813a7c-0e20-4da6-828f-afd3bddd2901" xmlns:ns4="8984c602-33bc-4411-a0ab-5251a4b54ae0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8784fea416786538bd2f9b568ce29c48" ns3:_="" ns4:_="">
     <xsd:import namespace="6f813a7c-0e20-4da6-828f-afd3bddd2901"/>
@@ -45748,22 +45767,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77DF6CCC-AB85-45A6-8C57-361BBF3CB3EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A8B0518-6E12-4BF5-AC9C-C27B89CAB8E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ED0D1A1-2416-4C15-83C4-94F02594DBF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45780,21 +45801,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A8B0518-6E12-4BF5-AC9C-C27B89CAB8E5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77DF6CCC-AB85-45A6-8C57-361BBF3CB3EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>